--- a/results/mp/tinybert/corona/confidence/84/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,45 +43,33 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -91,211 +79,256 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>&amp;</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>19</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>with</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>this</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -653,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7597402597402597</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,31 +923,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,49 +955,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.625</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>15</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>0.9375</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4761904761904762</v>
+        <v>0.2751937984496124</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4642857142857143</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,31 +1073,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4549356223175965</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L10">
         <v>32</v>
       </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
       <c r="M10">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4444444444444444</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3157894736842105</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3125</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8235294117647058</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,601 +1305,505 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2558139534883721</v>
+        <v>0.006268558231606731</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>3012</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L14">
+        <v>107</v>
+      </c>
+      <c r="M14">
+        <v>107</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K14">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L14">
+      <c r="K18">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L19">
+        <v>85</v>
+      </c>
+      <c r="M19">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L20">
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <v>75</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.7</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.68125</v>
+      </c>
+      <c r="L23">
+        <v>109</v>
+      </c>
+      <c r="M23">
+        <v>109</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="M14">
-        <v>42</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>105</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L15">
-        <v>46</v>
-      </c>
-      <c r="M15">
-        <v>46</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>88</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L16">
-        <v>47</v>
-      </c>
-      <c r="M16">
-        <v>47</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.08602150537634409</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>170</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.009120521172638436</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>0.67</v>
-      </c>
-      <c r="F18">
-        <v>0.33</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1521</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L19">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>13</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.76</v>
-      </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <v>19</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K24">
         <v>0.6666666666666666</v>
       </c>
       <c r="L24">
+        <v>42</v>
+      </c>
+      <c r="M24">
+        <v>42</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L25">
+        <v>31</v>
+      </c>
+      <c r="M25">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>16</v>
       </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L26">
+        <v>58</v>
+      </c>
+      <c r="M26">
+        <v>58</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.5796344647519582</v>
+      </c>
+      <c r="L28">
+        <v>222</v>
+      </c>
+      <c r="M28">
+        <v>222</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K25">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L25">
-        <v>17</v>
-      </c>
-      <c r="M25">
-        <v>17</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="K29">
+        <v>0.5117647058823529</v>
+      </c>
+      <c r="L29">
+        <v>174</v>
+      </c>
+      <c r="M29">
+        <v>174</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K26">
-        <v>0.647887323943662</v>
-      </c>
-      <c r="L26">
-        <v>138</v>
-      </c>
-      <c r="M26">
-        <v>138</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K30">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K27">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K28">
-        <v>0.64</v>
-      </c>
-      <c r="L28">
-        <v>16</v>
-      </c>
-      <c r="M28">
-        <v>16</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30">
-        <v>0.6</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31">
-        <v>0.6</v>
-      </c>
-      <c r="L31">
-        <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K32">
-        <v>0.589041095890411</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1878,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5763888888888888</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L33">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="M33">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1904,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.55</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1930,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.55</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1956,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.5357142857142857</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1982,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.4961240310077519</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2008,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.4782608695652174</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2034,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.4571428571428571</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2060,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.4324324324324325</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2086,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.3548387096774194</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2112,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.34375</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2138,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.2894736842105263</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2164,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.2037037037037037</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2190,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.1264367816091954</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2216,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>76</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.08292682926829269</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2242,47 +2179,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.07518796992481203</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>123</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.07177033492822966</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2294,47 +2231,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.07032967032967033</v>
+        <v>0.07505070993914807</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>423</v>
+        <v>912</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.06103286384976526</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2346,151 +2283,151 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>400</v>
+        <v>832</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.06060606060606061</v>
+        <v>0.06776556776556776</v>
       </c>
       <c r="L51">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>186</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.05855855855855856</v>
+        <v>0.06620209059233449</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>209</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.05472636815920398</v>
+        <v>0.05930470347648262</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>380</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.04740406320541761</v>
+        <v>0.05771365149833518</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>422</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.04458598726114649</v>
+        <v>0.05572755417956656</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>300</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.04285714285714286</v>
+        <v>0.055</v>
       </c>
       <c r="L56">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="M56">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2502,151 +2439,151 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>268</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.04035874439461883</v>
+        <v>0.05190311418685121</v>
       </c>
       <c r="L57">
         <v>45</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N57">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1070</v>
+        <v>822</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K58">
-        <v>0.03676470588235294</v>
+        <v>0.04930156121610518</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>262</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K59">
-        <v>0.03243243243243243</v>
+        <v>0.04652908067542214</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="N59">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>895</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K60">
-        <v>0.03107344632768362</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L60">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>343</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K61">
-        <v>0.02877697841726619</v>
+        <v>0.04368248003757633</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>810</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K62">
-        <v>0.02503912363067293</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2658,203 +2595,203 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>623</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K63">
-        <v>0.02237136465324385</v>
+        <v>0.03962264150943396</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="M63">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="N63">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O63">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>437</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K64">
-        <v>0.02212855637513172</v>
+        <v>0.03917525773195876</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>928</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K65">
-        <v>0.02132196162046908</v>
+        <v>0.0377113133940182</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N65">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>918</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K66">
-        <v>0.02092050209205021</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N66">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="O66">
-        <v>0.08999999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1872</v>
+        <v>844</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>0.01910507792860734</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="L67">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M67">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>1951</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K68">
-        <v>0.0189328743545611</v>
+        <v>0.03405572755417956</v>
       </c>
       <c r="L68">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1710</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="K69">
-        <v>0.01870967741935484</v>
+        <v>0.0328986960882648</v>
       </c>
       <c r="L69">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="M69">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N69">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1521</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K70">
-        <v>0.01848428835489834</v>
+        <v>0.03268482490272374</v>
       </c>
       <c r="L70">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="N70">
         <v>0.91</v>
@@ -2866,59 +2803,449 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>531</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K71">
-        <v>0.01609195402298851</v>
+        <v>0.03243978243978244</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="N71">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="O71">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>856</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72">
+        <v>0.03171806167400881</v>
+      </c>
+      <c r="L72">
+        <v>36</v>
+      </c>
+      <c r="M72">
+        <v>41</v>
+      </c>
+      <c r="N72">
+        <v>0.88</v>
+      </c>
+      <c r="O72">
+        <v>0.12</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73">
+        <v>0.03150912106135987</v>
+      </c>
+      <c r="L73">
+        <v>19</v>
+      </c>
+      <c r="M73">
+        <v>21</v>
+      </c>
+      <c r="N73">
+        <v>0.9</v>
+      </c>
+      <c r="O73">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74">
+        <v>0.03014705882352941</v>
+      </c>
+      <c r="L74">
+        <v>41</v>
+      </c>
+      <c r="M74">
+        <v>44</v>
+      </c>
+      <c r="N74">
+        <v>0.93</v>
+      </c>
+      <c r="O74">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K72">
-        <v>0.01006289308176101</v>
-      </c>
-      <c r="L72">
-        <v>16</v>
-      </c>
-      <c r="M72">
+      <c r="K75">
+        <v>0.02881040892193308</v>
+      </c>
+      <c r="L75">
+        <v>62</v>
+      </c>
+      <c r="M75">
+        <v>68</v>
+      </c>
+      <c r="N75">
+        <v>0.91</v>
+      </c>
+      <c r="O75">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K76">
+        <v>0.02865827181936604</v>
+      </c>
+      <c r="L76">
+        <v>66</v>
+      </c>
+      <c r="M76">
+        <v>72</v>
+      </c>
+      <c r="N76">
+        <v>0.92</v>
+      </c>
+      <c r="O76">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K77">
+        <v>0.02840909090909091</v>
+      </c>
+      <c r="L77">
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <v>24</v>
+      </c>
+      <c r="N77">
+        <v>0.83</v>
+      </c>
+      <c r="O77">
+        <v>0.17</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K78">
+        <v>0.0275</v>
+      </c>
+      <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
         <v>23</v>
       </c>
-      <c r="N72">
-        <v>0.7</v>
-      </c>
-      <c r="O72">
-        <v>0.3</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>1574</v>
+      <c r="N78">
+        <v>0.96</v>
+      </c>
+      <c r="O78">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K79">
+        <v>0.02657106706031211</v>
+      </c>
+      <c r="L79">
+        <v>63</v>
+      </c>
+      <c r="M79">
+        <v>71</v>
+      </c>
+      <c r="N79">
+        <v>0.89</v>
+      </c>
+      <c r="O79">
+        <v>0.11</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80">
+        <v>0.02548065786425759</v>
+      </c>
+      <c r="L80">
+        <v>110</v>
+      </c>
+      <c r="M80">
+        <v>121</v>
+      </c>
+      <c r="N80">
+        <v>0.91</v>
+      </c>
+      <c r="O80">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81">
+        <v>0.02541436464088398</v>
+      </c>
+      <c r="L81">
+        <v>23</v>
+      </c>
+      <c r="M81">
+        <v>23</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K82">
+        <v>0.02487046632124352</v>
+      </c>
+      <c r="L82">
+        <v>24</v>
+      </c>
+      <c r="M82">
+        <v>27</v>
+      </c>
+      <c r="N82">
+        <v>0.89</v>
+      </c>
+      <c r="O82">
+        <v>0.11</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83">
+        <v>0.02461139896373057</v>
+      </c>
+      <c r="L83">
+        <v>76</v>
+      </c>
+      <c r="M83">
+        <v>95</v>
+      </c>
+      <c r="N83">
+        <v>0.8</v>
+      </c>
+      <c r="O83">
+        <v>0.2</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K84">
+        <v>0.02243313201035375</v>
+      </c>
+      <c r="L84">
+        <v>26</v>
+      </c>
+      <c r="M84">
+        <v>28</v>
+      </c>
+      <c r="N84">
+        <v>0.93</v>
+      </c>
+      <c r="O84">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K85">
+        <v>0.02196422968308754</v>
+      </c>
+      <c r="L85">
+        <v>70</v>
+      </c>
+      <c r="M85">
+        <v>84</v>
+      </c>
+      <c r="N85">
+        <v>0.83</v>
+      </c>
+      <c r="O85">
+        <v>0.17</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K86">
+        <v>0.02006688963210702</v>
+      </c>
+      <c r="L86">
+        <v>48</v>
+      </c>
+      <c r="M86">
+        <v>50</v>
+      </c>
+      <c r="N86">
+        <v>0.96</v>
+      </c>
+      <c r="O86">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K87">
+        <v>0.01828681424446583</v>
+      </c>
+      <c r="L87">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>0.95</v>
+      </c>
+      <c r="O87">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
